--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H2">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.221527666666666</v>
+        <v>0.2819746666666667</v>
       </c>
       <c r="N2">
-        <v>9.664582999999999</v>
+        <v>0.845924</v>
       </c>
       <c r="O2">
-        <v>0.2384856963235171</v>
+        <v>0.02777466224158379</v>
       </c>
       <c r="P2">
-        <v>0.2384856963235171</v>
+        <v>0.02777466224158379</v>
       </c>
       <c r="Q2">
-        <v>131.431167343997</v>
+        <v>3.142592903325778</v>
       </c>
       <c r="R2">
-        <v>1182.880506095973</v>
+        <v>28.283336129932</v>
       </c>
       <c r="S2">
-        <v>0.06413432423866776</v>
+        <v>0.00355465362165279</v>
       </c>
       <c r="T2">
-        <v>0.06413432423866777</v>
+        <v>0.00355465362165279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H3">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>25.889681</v>
       </c>
       <c r="O3">
-        <v>0.6388603213277522</v>
+        <v>0.8500493487799721</v>
       </c>
       <c r="P3">
-        <v>0.6388603213277523</v>
+        <v>0.8500493487799721</v>
       </c>
       <c r="Q3">
-        <v>352.0804773463789</v>
+        <v>96.17971328389811</v>
       </c>
       <c r="R3">
-        <v>3168.724296117411</v>
+        <v>865.617419555083</v>
       </c>
       <c r="S3">
-        <v>0.1718043288251212</v>
+        <v>0.1087909177775845</v>
       </c>
       <c r="T3">
-        <v>0.1718043288251212</v>
+        <v>0.1087909177775845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H4">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I4">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J4">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.656842333333333</v>
+        <v>1.240358333333333</v>
       </c>
       <c r="N4">
-        <v>4.970527</v>
+        <v>3.721075</v>
       </c>
       <c r="O4">
-        <v>0.1226539823487307</v>
+        <v>0.1221759889784441</v>
       </c>
       <c r="P4">
-        <v>0.1226539823487307</v>
+        <v>0.1221759889784441</v>
       </c>
       <c r="Q4">
-        <v>67.59548403949299</v>
+        <v>13.82372871291389</v>
       </c>
       <c r="R4">
-        <v>608.3593563554369</v>
+        <v>124.413558416225</v>
       </c>
       <c r="S4">
-        <v>0.03298449506357932</v>
+        <v>0.01563631333924993</v>
       </c>
       <c r="T4">
-        <v>0.03298449506357932</v>
+        <v>0.01563631333924993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.221527666666666</v>
+        <v>0.2819746666666667</v>
       </c>
       <c r="N5">
-        <v>9.664582999999999</v>
+        <v>0.845924</v>
       </c>
       <c r="O5">
-        <v>0.2384856963235171</v>
+        <v>0.02777466224158379</v>
       </c>
       <c r="P5">
-        <v>0.2384856963235171</v>
+        <v>0.02777466224158379</v>
       </c>
       <c r="Q5">
-        <v>148.8984643151576</v>
+        <v>13.03282143961466</v>
       </c>
       <c r="R5">
-        <v>1340.086178836419</v>
+        <v>117.295392956532</v>
       </c>
       <c r="S5">
-        <v>0.07265782220463697</v>
+        <v>0.01474170131347677</v>
       </c>
       <c r="T5">
-        <v>0.07265782220463697</v>
+        <v>0.01474170131347677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>138.659493</v>
       </c>
       <c r="I6">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J6">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>25.889681</v>
       </c>
       <c r="O6">
-        <v>0.6388603213277522</v>
+        <v>0.8500493487799721</v>
       </c>
       <c r="P6">
-        <v>0.6388603213277523</v>
+        <v>0.8500493487799721</v>
       </c>
       <c r="Q6">
         <v>398.8722268213036</v>
@@ -818,10 +818,10 @@
         <v>3589.850041391733</v>
       </c>
       <c r="S6">
-        <v>0.1946372480874517</v>
+        <v>0.4511728528841771</v>
       </c>
       <c r="T6">
-        <v>0.1946372480874517</v>
+        <v>0.451172852884177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>138.659493</v>
       </c>
       <c r="I7">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J7">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.656842333333333</v>
+        <v>1.240358333333333</v>
       </c>
       <c r="N7">
-        <v>4.970527</v>
+        <v>3.721075</v>
       </c>
       <c r="O7">
-        <v>0.1226539823487307</v>
+        <v>0.1221759889784441</v>
       </c>
       <c r="P7">
-        <v>0.1226539823487307</v>
+        <v>0.1221759889784441</v>
       </c>
       <c r="Q7">
-        <v>76.57897264031233</v>
+        <v>57.32915254610833</v>
       </c>
       <c r="R7">
-        <v>689.2107537628109</v>
+        <v>515.9623729149749</v>
       </c>
       <c r="S7">
-        <v>0.03736815825673467</v>
+        <v>0.06484622284631431</v>
       </c>
       <c r="T7">
-        <v>0.03736815825673468</v>
+        <v>0.06484622284631429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H8">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I8">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J8">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.221527666666666</v>
+        <v>0.2819746666666667</v>
       </c>
       <c r="N8">
-        <v>9.664582999999999</v>
+        <v>0.845924</v>
       </c>
       <c r="O8">
-        <v>0.2384856963235171</v>
+        <v>0.02777466224158379</v>
       </c>
       <c r="P8">
-        <v>0.2384856963235171</v>
+        <v>0.02777466224158379</v>
       </c>
       <c r="Q8">
-        <v>208.4016964515371</v>
+        <v>8.379567869950222</v>
       </c>
       <c r="R8">
-        <v>1875.615268063834</v>
+        <v>75.41611082955201</v>
       </c>
       <c r="S8">
-        <v>0.1016935498802124</v>
+        <v>0.009478307306454223</v>
       </c>
       <c r="T8">
-        <v>0.1016935498802124</v>
+        <v>0.009478307306454223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H9">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I9">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J9">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>25.889681</v>
       </c>
       <c r="O9">
-        <v>0.6388603213277522</v>
+        <v>0.8500493487799721</v>
       </c>
       <c r="P9">
-        <v>0.6388603213277523</v>
+        <v>0.8500493487799721</v>
       </c>
       <c r="Q9">
-        <v>558.2706921746263</v>
+        <v>256.4584277912209</v>
       </c>
       <c r="R9">
-        <v>5024.436229571638</v>
+        <v>2308.125850120988</v>
       </c>
       <c r="S9">
-        <v>0.2724187444151793</v>
+        <v>0.2900855781182105</v>
       </c>
       <c r="T9">
-        <v>0.2724187444151793</v>
+        <v>0.2900855781182105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H10">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I10">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J10">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.656842333333333</v>
+        <v>1.240358333333333</v>
       </c>
       <c r="N10">
-        <v>4.970527</v>
+        <v>3.721075</v>
       </c>
       <c r="O10">
-        <v>0.1226539823487307</v>
+        <v>0.1221759889784441</v>
       </c>
       <c r="P10">
-        <v>0.1226539823487307</v>
+        <v>0.1221759889784441</v>
       </c>
       <c r="Q10">
-        <v>107.1816817195495</v>
+        <v>36.86028592601111</v>
       </c>
       <c r="R10">
-        <v>964.635135475946</v>
+        <v>331.7425733341</v>
       </c>
       <c r="S10">
-        <v>0.05230132902841668</v>
+        <v>0.04169345279287991</v>
       </c>
       <c r="T10">
-        <v>0.05230132902841669</v>
+        <v>0.04169345279287991</v>
       </c>
     </row>
   </sheetData>
